--- a/all_annotated/SXC_Q1_2014_2.xlsx
+++ b/all_annotated/SXC_Q1_2014_2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/Huzaifa-annotations/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028A8D63-401B-094C-9D2C-6EDDB76194D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -217,8 +223,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +287,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -327,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,9 +373,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,6 +425,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -568,14 +618,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -627,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -639,7 +691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -659,10 +711,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -671,7 +723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -691,10 +743,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -703,7 +755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -726,7 +778,7 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -735,7 +787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -755,10 +807,10 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -767,7 +819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -787,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -799,7 +851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -819,10 +871,10 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -831,7 +883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -851,10 +903,10 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -863,7 +915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -883,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -895,7 +947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -915,10 +967,10 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -927,7 +979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -947,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -959,7 +1011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -979,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -991,7 +1043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1011,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1023,7 +1075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1043,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1055,7 +1107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1075,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1087,7 +1139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1101,25 +1153,25 @@
         <v>56</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1136,22 +1188,22 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1171,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1200,13 +1252,13 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1215,7 +1267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1235,10 +1287,10 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1247,7 +1299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1267,10 +1319,10 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -1279,7 +1331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1299,10 +1351,10 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -1311,7 +1363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1331,10 +1383,10 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -1343,7 +1395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1360,13 +1412,13 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1375,7 +1427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1392,13 +1444,13 @@
         <v>2</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>2</v>

--- a/all_annotated/SXC_Q1_2014_2.xlsx
+++ b/all_annotated/SXC_Q1_2014_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/Huzaifa-annotations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/all_annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028A8D63-401B-094C-9D2C-6EDDB76194D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE509C7-740E-4F42-8E7D-F8406A173C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34520" yWindow="4660" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>asker</t>
   </si>
@@ -118,9 +118,6 @@
     <t>I guess, with respect to selling the coal coke or I'm sorry, the met coal assets, I guess, it would reflect a certain amount of bearishness longer term. I mean, you listen to some of these guys saying, "Listen, 2014 is not going to be a great year, but maybe 2015 will be much better." I guess, the question is, why not wait if you're at least medium bullish on met coal?</t>
   </si>
   <si>
-    <t>Got it. And then in terms of buying the balance of the JVs, is there a financing plan for that? Or I did not understand that fully?</t>
-  </si>
-  <si>
     <t>The -- was it $325 million transaction?</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
   </si>
   <si>
     <t>First of all, I don't have a view on met coal. I'm not that good. And even Mike Hardesty who works for me, who is that good, I mean, his crystal ball is not that great either. And so our view is no time like the present, might as well just get on with it. We don't really have -- we don't have a strategy which could make us successful. We are subscale. We have all the challenges. In other words -- and we won't -- it's not like we were printing cash when met coal prices were high. So as we think about it, now that the tax sharing agreement is over, yes, it's a tough time to sell the business, it's an even more difficult time for us to be in the business. And so we felt like it will be the right time to just get moving. And to the extent that we want to -- if we have a view on met coal, it's part of the transaction, some form of the consideration as an upside for met coal, fine. I'm flexible on that. But I just don't think staying in a business where you don't have a recipe for success, and to wait for commodity prices to rise is good strategy for us.</t>
-  </si>
-  <si>
-    <t>Could you clarify the question a bit?</t>
   </si>
   <si>
     <t>It's the dropdown.</t>
@@ -619,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="180" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -670,7 +664,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -702,7 +696,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -734,7 +728,7 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -766,7 +760,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -798,7 +792,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -830,7 +824,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -862,7 +856,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -894,7 +888,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -926,7 +920,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -958,7 +952,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -990,7 +984,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1022,7 +1016,7 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1054,7 +1048,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1086,7 +1080,7 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1118,7 +1112,7 @@
         <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1144,16 +1138,16 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1165,10 +1159,10 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1176,19 +1170,19 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1197,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1214,30 +1208,30 @@
         <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1246,19 +1240,19 @@
         <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1272,19 +1266,19 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1304,13 +1298,13 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1336,19 +1330,19 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1368,28 +1362,28 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -1406,56 +1400,24 @@
         <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26">
         <v>2</v>
       </c>
     </row>
